--- a/现金流量表/300922.xlsx
+++ b/现金流量表/300922.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>003</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,52 +744,48 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>7175948.61</v>
+        <v>24299416.77</v>
       </c>
       <c r="P2" t="n">
-        <v>34.3647019505</v>
+        <v>129.6794335463</v>
       </c>
       <c r="Q2" t="n">
-        <v>89884715.12</v>
+        <v>49170659.41</v>
       </c>
       <c r="R2" t="n">
-        <v>430.4464277658</v>
+        <v>262.4105475347</v>
       </c>
       <c r="S2" t="n">
-        <v>19135259.73</v>
+        <v>6623688.06</v>
       </c>
       <c r="T2" t="n">
-        <v>91.6363164099</v>
+        <v>35.3488367124</v>
       </c>
       <c r="U2" t="n">
-        <v>-12131170.27</v>
+        <v>-5561643.87</v>
       </c>
       <c r="V2" t="n">
-        <v>-58.0946259925</v>
+        <v>-29.6809933125</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>5218334.16</v>
+        <v>1197973.05</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.9899362207</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-15922900</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-76.25273569060001</v>
-      </c>
+        <v>6.3932590645</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>-20881742.61</v>
+        <v>18738065.17</v>
       </c>
       <c r="AD2" t="n">
-        <v>-250.8097439516</v>
+        <v>531.2287653855</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300922.xlsx
+++ b/现金流量表/300922.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,53 +739,57 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-22 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>24299416.77</v>
+        <v>45685238.46</v>
       </c>
       <c r="P2" t="n">
-        <v>129.6794335463</v>
+        <v>65.51186715670001</v>
       </c>
       <c r="Q2" t="n">
-        <v>49170659.41</v>
+        <v>133435570.18</v>
       </c>
       <c r="R2" t="n">
-        <v>262.4105475347</v>
+        <v>191.3443738564</v>
       </c>
       <c r="S2" t="n">
-        <v>6623688.06</v>
+        <v>10855145.24</v>
       </c>
       <c r="T2" t="n">
-        <v>35.3488367124</v>
+        <v>15.5660965533</v>
       </c>
       <c r="U2" t="n">
-        <v>-5561643.87</v>
+        <v>-1613589.13</v>
       </c>
       <c r="V2" t="n">
-        <v>-29.6809933125</v>
+        <v>-2.3138598001</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1197973.05</v>
+        <v>3404043.09</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.3932590645</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
+        <v>4.8813408056</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>25664800</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>36.8028935577</v>
+      </c>
       <c r="AC2" t="n">
-        <v>18738065.17</v>
+        <v>69735821.06999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>531.2287653855</v>
+        <v>23.157611151</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300922.xlsx
+++ b/现金流量表/300922.xlsx
@@ -744,52 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>45685238.46</v>
+        <v>46974411.46</v>
       </c>
       <c r="P2" t="n">
-        <v>65.51186715670001</v>
+        <v>260.4995780481</v>
       </c>
       <c r="Q2" t="n">
-        <v>133435570.18</v>
+        <v>166380969.89</v>
       </c>
       <c r="R2" t="n">
-        <v>191.3443738564</v>
+        <v>922.6762210417</v>
       </c>
       <c r="S2" t="n">
-        <v>10855145.24</v>
+        <v>21365392.62</v>
       </c>
       <c r="T2" t="n">
-        <v>15.5660965533</v>
+        <v>118.483139849</v>
       </c>
       <c r="U2" t="n">
-        <v>-1613589.13</v>
+        <v>-13013909.13</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.3138598001</v>
+        <v>-72.16945847220001</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>3404043.09</v>
+        <v>6575886.71</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.8813408056</v>
+        <v>36.4669968182</v>
       </c>
       <c r="AA2" t="n">
-        <v>25664800</v>
+        <v>-15922900</v>
       </c>
       <c r="AB2" t="n">
-        <v>36.8028935577</v>
+        <v>-88.3014518411</v>
       </c>
       <c r="AC2" t="n">
-        <v>69735821.06999999</v>
+        <v>18032432.84</v>
       </c>
       <c r="AD2" t="n">
-        <v>23.157611151</v>
+        <v>554.7413872757</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/300922.xlsx
+++ b/现金流量表/300922.xlsx
@@ -724,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -744,52 +744,48 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>46974411.46</v>
+        <v>24299416.77</v>
       </c>
       <c r="P2" t="n">
-        <v>260.4995780481</v>
+        <v>129.6794335463</v>
       </c>
       <c r="Q2" t="n">
-        <v>166380969.89</v>
+        <v>49170659.41</v>
       </c>
       <c r="R2" t="n">
-        <v>922.6762210417</v>
+        <v>262.4105475347</v>
       </c>
       <c r="S2" t="n">
-        <v>21365392.62</v>
+        <v>6623688.06</v>
       </c>
       <c r="T2" t="n">
-        <v>118.483139849</v>
+        <v>35.3488367124</v>
       </c>
       <c r="U2" t="n">
-        <v>-13013909.13</v>
+        <v>-5561643.87</v>
       </c>
       <c r="V2" t="n">
-        <v>-72.16945847220001</v>
+        <v>-29.6809933125</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>6575886.71</v>
+        <v>1197973.05</v>
       </c>
       <c r="Z2" t="n">
-        <v>36.4669968182</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-15922900</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-88.3014518411</v>
-      </c>
+        <v>6.3932590645</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="n">
-        <v>18032432.84</v>
+        <v>18738065.17</v>
       </c>
       <c r="AD2" t="n">
-        <v>554.7413872757</v>
+        <v>531.2287653855</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
